--- a/受控文档/需求分析/非功能需求/学生用户非功能性需求.xlsx
+++ b/受控文档/需求分析/非功能需求/学生用户非功能性需求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12420"/>
+    <workbookView windowWidth="22943" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>1、学生用户负责为用例的相对收益、相对损失部分打分，
 2、利益表示“如果实现，给用户带来的利益”；损失表示“如果不实现，给用户带来的损失”；
@@ -98,10 +98,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -118,39 +118,92 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,75 +217,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,17 +255,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,6 +277,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -289,25 +403,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,139 +451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,21 +462,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -504,15 +489,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -524,6 +500,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,6 +539,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -551,162 +562,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,13 +1043,13 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="101.866666666667" customWidth="1"/>
+    <col min="1" max="1" width="101.87037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1068,7 +1068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" ht="15.6" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1087,10 +1087,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1105,10 +1105,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1123,10 +1123,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -1141,10 +1141,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C12" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1162,7 +1162,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -1172,7 +1172,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" ht="15.6" spans="1:10">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1191,10 +1191,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C15" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1209,7 +1209,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C16" s="4">
         <v>9</v>
@@ -1222,7 +1222,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" ht="15.6" spans="1:10">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -1241,10 +1241,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C18" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1254,7 +1254,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" ht="15.6" spans="1:10">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -1273,10 +1273,10 @@
         <v>6</v>
       </c>
       <c r="B20" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1294,7 +1294,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1309,10 +1309,10 @@
         <v>17</v>
       </c>
       <c r="B22" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1322,7 +1322,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" ht="15.6" spans="1:10">
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
@@ -1341,10 +1341,10 @@
         <v>19</v>
       </c>
       <c r="B24" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C24" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1359,10 +1359,10 @@
         <v>20</v>
       </c>
       <c r="B25" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C25" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1380,7 +1380,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1390,7 +1390,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" ht="15.6" spans="1:10">
       <c r="A27" s="3" t="s">
         <v>22</v>
       </c>
@@ -1444,7 +1444,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:J6"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
